--- a/docs/samples/3/Financial_Report.xlsx
+++ b/docs/samples/3/Financial_Report.xlsx
@@ -242,6 +242,9 @@
     <t>Balance Sheet Governmental Funds [Line Items]</t>
   </si>
   <si>
+    <t>Nonspendable Fund Balance</t>
+  </si>
+  <si>
     <t>Restricted Fund Balance</t>
   </si>
   <si>
@@ -258,9 +261,6 @@
   </si>
   <si>
     <t>General Fund [Member]</t>
-  </si>
-  <si>
-    <t>Nonspendable Fund Balance</t>
   </si>
   <si>
     <t xml:space="preserve"> - Primary Government Activities [Member] - Modified Accrual, Basis of Accounting [Member] - Governmental Type Activity [Member] - Major [Member]</t>
@@ -823,7 +823,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1517,7 +1517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1561,7 +1561,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>26113490</v>
+        <v>11009773</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1569,7 +1569,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>377358258</v>
+        <v>26113490</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1577,7 +1577,7 @@
         <v>73</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>34152482</v>
+        <v>377358258</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="6" t="n">
-        <v>74014681</v>
+        <v>34152482</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1593,33 +1593,33 @@
         <v>75</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>522648684</v>
+        <v>74014681</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="B10" s="6" t="n">
+        <v>522648684</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="6" t="n">
-        <v>11009773</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>10015523</v>
+        <v>11009773</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1627,7 +1627,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="6" t="n">
-        <v>34152482</v>
+        <v>10015523</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1635,17 +1635,25 @@
         <v>74</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>73780565</v>
+        <v>34152482</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="6" t="n">
+        <v>73780565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="5" t="n">
         <v>128958343</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C17" s="5" t="n">
         <v>120006283</v>
       </c>
     </row>
